--- a/biology/Botanique/Zanthoxylum_simulans/Zanthoxylum_simulans.xlsx
+++ b/biology/Botanique/Zanthoxylum_simulans/Zanthoxylum_simulans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zanthoxylum simulans est une espèce d'arbres de la famille des Rutacées. Ses fruits, tout comme ceux de Zanthoxylum bungeanum, sont utilisés comme épice sous le nom de poivre de Chine ou poivre du Sichuan, bien que ces noms s'appliquent aussi aux produits d'autres espèces du genre Zanthoxylum.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste caduc de 4 à 6 m de haut et de large. Il présente des aiguillons accrescents le long du tronc. C'est l'une des espèces les plus rustiques du genre avec Zanthoxylum piperitum, avec lequel il est souvent confondu.
 </t>
@@ -542,9 +556,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zanthoxylum simulans est native de Chine (Chine centrale du Nord, Chine centrale du Sud, Chine du Sud-Est, Qinghai), Corée et Taïwan[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zanthoxylum simulans est native de Chine (Chine centrale du Nord, Chine centrale du Sud, Chine du Sud-Est, Qinghai), Corée et Taïwan.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Zanthoxylum simulans a pour synonymes[3],[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Zanthoxylum simulans a pour synonymes, :
 Fagara podocarpa (Hemsl.) Engl.
 Fagara setosa (Hemsl.) Engl.
 Zanthoxylum acanthophyllum Hayata
@@ -610,9 +628,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (1 novembre 2020)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1 novembre 2020) :
 variété Zanthoxylum simulans var. imperforatum (Franch.) Reeder &amp; S.Y. Cheo = Zanthoxylum bungeanum var. bungeanum
 variété Zanthoxylum simulans var. podocarpum (Hemsl.) C.C. Huang = Zanthoxylum simulans
 variété Zanthoxylum simulans var. zimmermannii (Rehder &amp; E.H. Wilson) Rehder</t>
